--- a/outputFile/strn4.xlsx
+++ b/outputFile/strn4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>strn_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>strn_2</t>
+          <t>strn_only</t>
         </is>
       </c>
     </row>
@@ -451,12 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.625, 16], [0.5789473684210527, 10], [0.6060606060606061, 6]]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[[0.6666666666666667, 7], [0.5625, 6], [0.4, 3]]</t>
+          <t>[[0.5416666666666666, 18], [0.5641025641025642, 11], [0.5882352941176471, 7]]</t>
         </is>
       </c>
     </row>
@@ -466,12 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.717948717948718, 8], [0.6060606060606061, 6], [0.5714285714285714, 3]]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[[0.6060606060606061, 6], [0.4, 3], [0.21052631578947367, 0]]</t>
+          <t>[[0.6857142857142857, 6], [0.5714285714285714, 3], [0.3, 0]]</t>
         </is>
       </c>
     </row>
@@ -481,12 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.6842105263157895, 8], [0.6060606060606061, 6], [0.46153846153846156, 3]]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[[0.5185185185185185, 3], [0.1111111111111111, 0], [0, 0]]</t>
+          <t>[[0.5517241379310345, 4], [0.1111111111111111, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
